--- a/INVENTOR/Piezas3D/Piezas3D/ParametrosDiseño.xlsx
+++ b/INVENTOR/Piezas3D/Piezas3D/ParametrosDiseño.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNAL\2022-2S\Servomecanismos\Proyecto Academico\Servomecanismo2R-main\Servomecanismo2R\INVENTOR\Piezas3D\Piezas3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B17B0A-90D3-4571-B59A-D4DE0C78C361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA59E6-B342-49E8-BDD3-730452C83478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="2208" windowWidth="17280" windowHeight="9072" xr2:uid="{B2B0C588-2C55-4E4F-B4D6-59E8D2A89C90}"/>
+    <workbookView xWindow="6324" yWindow="1632" windowWidth="17280" windowHeight="9072" xr2:uid="{B2B0C588-2C55-4E4F-B4D6-59E8D2A89C90}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B0162-B50E-49E0-92C4-1388363AA2DB}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
